--- a/PLANEACION_DEL_PROYECTO/SCA-001_Matriz-de-comunicación.xlsx
+++ b/PLANEACION_DEL_PROYECTO/SCA-001_Matriz-de-comunicación.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ITI-902\ADMINISTRACIÓN_DE_PROYECTOS II\Plantillas_Act2Parc1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lia\Desktop\SCA-001-Doc\PLANEACION_DEL_PROYECTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="5085" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="5085"/>
   </bookViews>
   <sheets>
     <sheet name="Identificación" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="114">
   <si>
     <t>Matriz de comunicación</t>
   </si>
@@ -103,9 +103,6 @@
     <t>Localización del Documento</t>
   </si>
   <si>
-    <t>[Repositorio, Localización]</t>
-  </si>
-  <si>
     <t>Documento base</t>
   </si>
   <si>
@@ -365,13 +362,19 @@
   </si>
   <si>
     <t xml:space="preserve">Reporte de Pruebas de caja blanca </t>
+  </si>
+  <si>
+    <t>https://github.com/RafaHNDZ/SCA-Documentation/tree/master/PLANEACION_DEL_PROYECTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/RafaHNDZ/SCA-Documentation/tree/master/PLANEACION_DEL_PROYECTO </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -418,6 +421,14 @@
     <font>
       <sz val="26"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -567,10 +578,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -641,8 +653,12 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1021,8 +1037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1040,7 +1056,7 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1061,7 +1077,7 @@
     <row r="7" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1085,7 +1101,7 @@
         <v>21</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -1107,7 +1123,7 @@
         <v>23</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -1117,8 +1133,8 @@
       <c r="B13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>25</v>
+      <c r="C13" s="28" t="s">
+        <v>113</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -1126,10 +1142,10 @@
     <row r="14" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -1144,7 +1160,7 @@
     <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" s="23"/>
       <c r="D16" s="6"/>
@@ -1153,10 +1169,10 @@
     <row r="17" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -1164,7 +1180,7 @@
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C18" s="20">
         <v>42517</v>
@@ -1196,7 +1212,7 @@
     <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C22" s="23"/>
       <c r="D22" s="5"/>
@@ -1205,10 +1221,10 @@
     <row r="23" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -1216,7 +1232,7 @@
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C24" s="20">
         <v>42518</v>
@@ -1227,7 +1243,7 @@
     <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C25" s="20">
         <v>42518</v>
@@ -1238,7 +1254,7 @@
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C26" s="20">
         <v>42518</v>
@@ -1256,7 +1272,7 @@
     <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C28" s="24"/>
       <c r="D28" s="24"/>
@@ -1271,10 +1287,10 @@
         <v>22</v>
       </c>
       <c r="D29" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" s="8" t="s">
         <v>34</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -1308,8 +1324,11 @@
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="B2:B5"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C13" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1317,8 +1336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1329,7 +1348,7 @@
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1343,7 +1362,7 @@
     </row>
     <row r="7" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1364,7 +1383,7 @@
         <v>21</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -1384,7 +1403,7 @@
         <v>23</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -1393,18 +1412,18 @@
       <c r="A13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>25</v>
+      <c r="B13" s="28" t="s">
+        <v>112</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
     </row>
     <row r="14" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>27</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -1423,7 +1442,7 @@
     </row>
     <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B17" s="24"/>
       <c r="C17" s="24"/>
@@ -1437,10 +1456,10 @@
         <v>22</v>
       </c>
       <c r="C18" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>34</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -1502,8 +1521,11 @@
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A17:D17"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B13" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1511,7 +1533,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BH19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="BJ1" sqref="BJ1"/>
     </sheetView>
   </sheetViews>
@@ -1528,178 +1550,178 @@
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="13" t="s">
-        <v>44</v>
-      </c>
       <c r="F1" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I1" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q1" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="L1" s="12" t="s">
+      <c r="R1" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="T1" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="U1" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="V1" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="W1" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="X1" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y1" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z1" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA1" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB1" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC1" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD1" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE1" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF1" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG1" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH1" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI1" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ1" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK1" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="M1" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="P1" s="12" t="s">
+      <c r="AL1" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM1" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="AN1" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="AO1" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP1" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="AQ1" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="AR1" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="AS1" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="AT1" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="AU1" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="AV1" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="AW1" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="AX1" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="AY1" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="AZ1" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="BA1" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="Q1" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="R1" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="S1" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="T1" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="U1" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="V1" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="W1" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="X1" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y1" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z1" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA1" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB1" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC1" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="AD1" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE1" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF1" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="AG1" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="AH1" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="AI1" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="AJ1" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="AK1" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AL1" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="AM1" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="AN1" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO1" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="AP1" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="AQ1" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="AR1" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="AS1" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="AT1" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="AU1" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="AV1" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="AW1" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="AX1" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="AY1" s="12" t="s">
+      <c r="BB1" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="BC1" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="BD1" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="BE1" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="AZ1" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="BA1" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="BB1" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="BC1" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="BD1" s="12" t="s">
+      <c r="BF1" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="BE1" s="12" t="s">
+      <c r="BG1" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="BH1" s="12" t="s">
         <v>91</v>
-      </c>
-      <c r="BF1" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="BG1" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="BH1" s="12" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:60" x14ac:dyDescent="0.25">
@@ -1710,22 +1732,22 @@
         <v>1</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F2" s="15" t="s">
         <v>15</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I2" s="15" t="s">
         <v>16</v>
@@ -2002,7 +2024,7 @@
     </row>
     <row r="4" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>3</v>
@@ -2184,7 +2206,7 @@
     </row>
     <row r="5" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B5" s="17" t="s">
         <v>4</v>
@@ -2366,7 +2388,7 @@
     </row>
     <row r="6" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>5</v>
@@ -2548,7 +2570,7 @@
     </row>
     <row r="7" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B7" s="17" t="s">
         <v>6</v>
@@ -2730,10 +2752,10 @@
     </row>
     <row r="8" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>19</v>
@@ -2912,10 +2934,10 @@
     </row>
     <row r="9" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>19</v>
@@ -3094,7 +3116,7 @@
     </row>
     <row r="10" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B10" s="17" t="s">
         <v>7</v>
@@ -3276,7 +3298,7 @@
     </row>
     <row r="12" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A12" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B12" s="27"/>
       <c r="G12" s="21"/>
@@ -3316,7 +3338,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17" s="17" t="s">
         <v>19</v>
@@ -3324,7 +3346,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B18" s="17" t="s">
         <v>17</v>
@@ -3332,7 +3354,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B19" s="17" t="s">
         <v>18</v>
